--- a/tests/outputs/Extras2.xlsx
+++ b/tests/outputs/Extras2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -114,7 +114,6 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -129,7 +128,6 @@
       <bottom style="thin">
         <color rgb="0095B3D7"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -144,110 +142,131 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color rgb="00000000"/>
-      </right>
-      <top>
-        <color rgb="00000000"/>
-      </top>
-      <bottom>
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="3" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" indent="3"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -263,7 +282,7 @@
     <ext cx="1352550" cy="485775"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -288,7 +307,7 @@
     <ext cx="4581525" cy="2381250"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -313,7 +332,7 @@
     <ext cx="1876425" cy="1495425"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -338,7 +357,7 @@
     <ext cx="3143250" cy="1171575"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="4" name="Image 4"/>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -653,24 +672,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11.13857142857143"/>
-    <col customWidth="1" max="2" min="2" width="9.852857142857143"/>
-    <col customWidth="1" max="3" min="3" width="9.852857142857143"/>
-    <col customWidth="1" max="4" min="4" width="9.852857142857143"/>
-    <col customWidth="1" max="5" min="5" width="9.852857142857143"/>
-    <col customWidth="1" max="6" min="6" width="9.852857142857143"/>
-    <col customWidth="1" max="7" min="7" width="9.852857142857143"/>
-    <col customWidth="1" max="8" min="8" width="9.852857142857143"/>
-    <col customWidth="1" max="9" min="9" width="9.852857142857143"/>
-    <col customWidth="1" max="10" min="10" width="9.852857142857143"/>
-    <col customWidth="1" max="11" min="11" width="9.852857142857143"/>
-    <col customWidth="1" max="12" min="12" width="9.852857142857143"/>
-    <col customWidth="1" max="13" min="13" width="13.85285714285714"/>
-    <col customWidth="1" max="14" min="14" width="11.85285714285714"/>
-    <col customWidth="1" max="15" min="15" width="12.28142857142857"/>
+    <col width="11.13857142857143" customWidth="1" min="1" max="1"/>
+    <col width="9.852857142857143" customWidth="1" min="2" max="2"/>
+    <col width="9.852857142857143" customWidth="1" min="3" max="3"/>
+    <col width="9.852857142857143" customWidth="1" min="4" max="4"/>
+    <col width="9.852857142857143" customWidth="1" min="5" max="5"/>
+    <col width="9.852857142857143" customWidth="1" min="6" max="6"/>
+    <col width="9.852857142857143" customWidth="1" min="7" max="7"/>
+    <col width="9.852857142857143" customWidth="1" min="8" max="8"/>
+    <col width="9.852857142857143" customWidth="1" min="9" max="9"/>
+    <col width="9.852857142857143" customWidth="1" min="10" max="10"/>
+    <col width="9.852857142857143" customWidth="1" min="11" max="11"/>
+    <col width="9.852857142857143" customWidth="1" min="12" max="12"/>
+    <col width="13.85285714285714" customWidth="1" min="13" max="13"/>
+    <col width="11.85285714285714" customWidth="1" min="14" max="14"/>
+    <col width="12.28142857142857" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Extra stuff we don't support with xlrd</t>
@@ -691,7 +710,7 @@
       <c r="N1" s="2" t="inlineStr"/>
       <c r="O1" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="2" t="inlineStr"/>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr"/>
@@ -708,7 +727,7 @@
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
       <c r="C3" s="2" t="inlineStr"/>
@@ -733,7 +752,7 @@
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="3" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
@@ -750,7 +769,7 @@
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr"/>
@@ -767,7 +786,7 @@
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr"/>
@@ -784,7 +803,7 @@
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Symbols</t>
@@ -809,7 +828,7 @@
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="8">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr"/>
@@ -826,7 +845,7 @@
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr"/>
       <c r="C9" s="2" t="inlineStr"/>
@@ -843,7 +862,7 @@
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="10">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="2" t="inlineStr"/>
@@ -864,7 +883,7 @@
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="11">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Filter</t>
@@ -905,7 +924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12">
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>a</t>
@@ -938,7 +957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row customHeight="1" hidden="1" r="13">
+    <row r="13" hidden="1" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>b</t>
@@ -971,7 +990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row customHeight="1" hidden="1" r="14">
+    <row r="14" hidden="1" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>c</t>
@@ -1004,7 +1023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="15">
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>d</t>
@@ -1037,7 +1056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16">
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
@@ -1062,7 +1081,7 @@
         <v>330</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="2" t="inlineStr"/>
@@ -1079,7 +1098,7 @@
       <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="18">
+    <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr"/>
       <c r="C18" s="2" t="inlineStr"/>
@@ -1096,7 +1115,7 @@
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="19">
+    <row r="19" ht="15" customHeight="1">
       <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
@@ -1113,7 +1132,7 @@
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="20">
+    <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
@@ -1130,7 +1149,7 @@
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="21">
+    <row r="21" ht="15" customHeight="1">
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
@@ -1147,7 +1166,7 @@
       <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="22">
+    <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr"/>
       <c r="C22" s="2" t="inlineStr"/>
@@ -1164,7 +1183,7 @@
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="23">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr"/>
       <c r="C23" s="2" t="inlineStr"/>
@@ -1181,7 +1200,7 @@
       <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="24">
+    <row r="24" ht="15" customHeight="1">
       <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
@@ -1198,7 +1217,7 @@
       <c r="N24" s="2" t="inlineStr"/>
       <c r="O24" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="25">
+    <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
@@ -1215,7 +1234,7 @@
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="26">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
@@ -1232,22 +1251,19 @@
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="27">
+    <row r="27" ht="15" customHeight="1">
       <c r="A27" s="9" t="inlineStr">
         <is>
           <t>This cell has indentation 3</t>
         </is>
       </c>
-      <c r="B27" s="10" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="11" t="n"/>
-      <c r="E27" s="12" t="inlineStr">
+      <c r="E27" s="10" t="inlineStr">
         <is>
           <t>Conditional Formatting</t>
         </is>
       </c>
-      <c r="F27" s="12" t="inlineStr"/>
-      <c r="G27" s="12" t="inlineStr"/>
+      <c r="F27" s="10" t="inlineStr"/>
+      <c r="G27" s="10" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
@@ -1257,20 +1273,20 @@
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="28">
-      <c r="A28" s="12" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Formulas</t>
         </is>
       </c>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>Here</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="11" t="n">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="n">
@@ -1286,7 +1302,7 @@
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="29">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>5!</t>
@@ -1297,7 +1313,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="12" t="n">
         <v>20</v>
       </c>
       <c r="F29" s="5" t="n">
@@ -1313,7 +1329,7 @@
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="30">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>SQRT(4)</t>
@@ -1324,7 +1340,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="13" t="n">
         <v>30</v>
       </c>
       <c r="F30" s="5" t="n">
@@ -1340,7 +1356,7 @@
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="31">
+    <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>5!*SQRT(4)</t>
@@ -1351,7 +1367,7 @@
       </c>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="14" t="n">
         <v>40</v>
       </c>
       <c r="F31" s="5" t="n">
@@ -1367,7 +1383,7 @@
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
     </row>
-    <row customHeight="1" ht="15" r="32">
+    <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
@@ -1378,7 +1394,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr"/>
       <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="17" t="n">
+      <c r="E32" s="15" t="n">
         <v>50</v>
       </c>
       <c r="F32" s="5" t="n">
@@ -1398,7 +1414,7 @@
   <mergeCells count="1">
     <mergeCell ref="A27:D27"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1417,14 +1433,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1442,13 +1458,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>